--- a/templates/1.2_StakeholderRegisterTemplate.xlsx
+++ b/templates/1.2_StakeholderRegisterTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/496d41b51a3bd866/PMI Case Challenge/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding Projects\PMI_CaseStudyChallenge\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF48A52-F949-4BBC-8B7B-10319B377C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DA8744-0B16-4DC7-A0F2-143545C031D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{2866413C-593A-4E24-852E-2F32EB16B114}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2866413C-593A-4E24-852E-2F32EB16B114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -221,21 +221,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -351,6 +336,43 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -376,29 +398,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,19 +422,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,13 +467,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -843,61 +865,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="C4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -905,11 +927,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -917,11 +939,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -929,11 +951,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -941,11 +963,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
         <v>6</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -953,11 +975,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -965,11 +987,11 @@
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -977,11 +999,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -989,11 +1011,11 @@
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
         <v>10</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
